--- a/资产负债表/300919.xlsx
+++ b/资产负债表/300919.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -784,52 +784,54 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-03 00:00:00</t>
+          <t>2020-12-17 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>6287528776.99</v>
+        <v>2028641985.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1693232330.21</v>
+        <v>296691140.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1090479399.2</v>
+        <v>53032608.98</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>812755200.09</v>
+        <v>234409028.67</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>1019399211.51</v>
+        <v>325966282.69</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>4103148321.44</v>
+        <v>1727574863.67</v>
       </c>
       <c r="X2" t="n">
-        <v>665037218.3200001</v>
+        <v>134245249</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>125910479.04</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>2184380455.55</v>
+        <v>301067121.86</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>121.705117328</v>
+        <v>106.8957754648</v>
       </c>
       <c r="AG2" t="n">
-        <v>65.2585215428</v>
+        <v>85.1591791944</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300919.xlsx
+++ b/资产负债表/300919.xlsx
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2028641985.53</v>
+        <v>6163789632.3</v>
       </c>
       <c r="P2" t="n">
-        <v>296691140.95</v>
+        <v>1701792754.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>53032608.98</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>950633486.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>91.8433678028</v>
+      </c>
       <c r="S2" t="n">
-        <v>234409028.67</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>810691033.45</v>
+      </c>
+      <c r="T2" t="n">
+        <v>75.9977247027</v>
+      </c>
       <c r="U2" t="n">
-        <v>325966282.69</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>1039919753.96</v>
+      </c>
+      <c r="V2" t="n">
+        <v>74.89496600210001</v>
+      </c>
       <c r="W2" t="n">
-        <v>1727574863.67</v>
+        <v>4049639671.7</v>
       </c>
       <c r="X2" t="n">
-        <v>134245249</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>837267976.6900001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>63.2906631042</v>
+      </c>
       <c r="Z2" t="n">
-        <v>125910479.04</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>3700550.88</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-87.151121527</v>
+      </c>
       <c r="AB2" t="n">
-        <v>301067121.86</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>2114149960.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>331.4242990546</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>50.9404423701</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12.6918679527</v>
+      </c>
       <c r="AF2" t="n">
-        <v>106.8957754648</v>
+        <v>116.8579430451</v>
       </c>
       <c r="AG2" t="n">
-        <v>85.1591791944</v>
+        <v>65.7004848199</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300919.xlsx
+++ b/资产负债表/300919.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>6163789632.3</v>
+        <v>4083590544.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1701792754.7</v>
+        <v>1140919499.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>950633486.34</v>
+        <v>495525853.84</v>
       </c>
       <c r="R2" t="n">
-        <v>91.8433678028</v>
+        <v>834.3795513188001</v>
       </c>
       <c r="S2" t="n">
-        <v>810691033.45</v>
+        <v>460625860.26</v>
       </c>
       <c r="T2" t="n">
-        <v>75.9977247027</v>
+        <v>96.50516999</v>
       </c>
       <c r="U2" t="n">
-        <v>1039919753.96</v>
+        <v>594596732.96</v>
       </c>
       <c r="V2" t="n">
-        <v>74.89496600210001</v>
+        <v>82.4105021087</v>
       </c>
       <c r="W2" t="n">
-        <v>4049639671.7</v>
+        <v>3593550932.53</v>
       </c>
       <c r="X2" t="n">
-        <v>837267976.6900001</v>
+        <v>512747000.21</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.2906631042</v>
+        <v>281.9479676409</v>
       </c>
       <c r="Z2" t="n">
-        <v>3700550.88</v>
+        <v>28800574.99</v>
       </c>
       <c r="AA2" t="n">
-        <v>-87.151121527</v>
+        <v>-77.126149301</v>
       </c>
       <c r="AB2" t="n">
-        <v>2114149960.6</v>
+        <v>490039611.87</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.4242990546</v>
+        <v>62.7675612144</v>
       </c>
       <c r="AD2" t="n">
-        <v>50.9404423701</v>
+        <v>101.2967578078</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.6918679527</v>
+        <v>108.0113000079</v>
       </c>
       <c r="AF2" t="n">
-        <v>116.8579430451</v>
+        <v>89.00982962800001</v>
       </c>
       <c r="AG2" t="n">
-        <v>65.7004848199</v>
+        <v>87.99978581249999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300919.xlsx
+++ b/资产负债表/300919.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>4083590544.4</v>
+        <v>6163789632.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1140919499.37</v>
+        <v>1701792754.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>495525853.84</v>
+        <v>950633486.34</v>
       </c>
       <c r="R2" t="n">
-        <v>834.3795513188001</v>
+        <v>91.8433678028</v>
       </c>
       <c r="S2" t="n">
-        <v>460625860.26</v>
+        <v>810691033.45</v>
       </c>
       <c r="T2" t="n">
-        <v>96.50516999</v>
+        <v>75.9977247027</v>
       </c>
       <c r="U2" t="n">
-        <v>594596732.96</v>
+        <v>1039919753.96</v>
       </c>
       <c r="V2" t="n">
-        <v>82.4105021087</v>
+        <v>74.89496600210001</v>
       </c>
       <c r="W2" t="n">
-        <v>3593550932.53</v>
+        <v>4049639671.7</v>
       </c>
       <c r="X2" t="n">
-        <v>512747000.21</v>
+        <v>837267976.6900001</v>
       </c>
       <c r="Y2" t="n">
-        <v>281.9479676409</v>
+        <v>63.2906631042</v>
       </c>
       <c r="Z2" t="n">
-        <v>28800574.99</v>
+        <v>3700550.88</v>
       </c>
       <c r="AA2" t="n">
-        <v>-77.126149301</v>
+        <v>-87.151121527</v>
       </c>
       <c r="AB2" t="n">
-        <v>490039611.87</v>
+        <v>2114149960.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.7675612144</v>
+        <v>331.4242990546</v>
       </c>
       <c r="AD2" t="n">
-        <v>101.2967578078</v>
+        <v>50.9404423701</v>
       </c>
       <c r="AE2" t="n">
-        <v>108.0113000079</v>
+        <v>12.6918679527</v>
       </c>
       <c r="AF2" t="n">
-        <v>89.00982962800001</v>
+        <v>116.8579430451</v>
       </c>
       <c r="AG2" t="n">
-        <v>87.99978581249999</v>
+        <v>65.7004848199</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
